--- a/docs/Check-Price-AMZ-EBAY.xlsx
+++ b/docs/Check-Price-AMZ-EBAY.xlsx
@@ -910,7 +910,7 @@
         <v/>
       </c>
       <c r="H9" s="10" t="n">
-        <v>24.98</v>
+        <v>42.99</v>
       </c>
       <c r="J9" s="11">
         <f>if(H9="#ALL_SELECTORS_RETURN_NULL","Non stock","")</f>
@@ -1005,7 +1005,7 @@
         <v/>
       </c>
       <c r="H11" s="10" t="n">
-        <v>49.99</v>
+        <v>38.89</v>
       </c>
       <c r="J11" s="11">
         <f>if(H11="#ALL_SELECTORS_RETURN_NULL","Non stock","")</f>
@@ -1285,7 +1285,7 @@
         <v/>
       </c>
       <c r="H17" s="10" t="n">
-        <v>55.5</v>
+        <v>62.21</v>
       </c>
       <c r="J17" s="11">
         <f>if(H17="#ALL_SELECTORS_RETURN_NULL","Non stock","")</f>
@@ -2071,7 +2071,7 @@
         <v/>
       </c>
       <c r="H42" s="10" t="n">
-        <v>24.98</v>
+        <v>42.99</v>
       </c>
       <c r="J42" s="11">
         <f>if(H42="#ALL_SELECTORS_RETURN_NULL","Non stock","")</f>
